--- a/data/pca/factorExposure/factorExposure_2016-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01619398748512414</v>
+        <v>0.01412979710880145</v>
       </c>
       <c r="C2">
-        <v>0.03893446502343222</v>
+        <v>0.0408537206531575</v>
       </c>
       <c r="D2">
-        <v>-0.03055767566533691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03271561960548909</v>
+      </c>
+      <c r="E2">
+        <v>-0.05407660295137134</v>
+      </c>
+      <c r="F2">
+        <v>-0.01644905546232436</v>
+      </c>
+      <c r="G2">
+        <v>-0.1021741224432112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06659712338598574</v>
+        <v>0.03604344382025207</v>
       </c>
       <c r="C3">
-        <v>0.103405189312518</v>
+        <v>0.0932192079804561</v>
       </c>
       <c r="D3">
-        <v>-0.01910103595480233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01929074289621889</v>
+      </c>
+      <c r="E3">
+        <v>-0.09865691280041333</v>
+      </c>
+      <c r="F3">
+        <v>-0.02766498432260917</v>
+      </c>
+      <c r="G3">
+        <v>-0.1057784491312514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06670058726345761</v>
+        <v>0.05563628233539586</v>
       </c>
       <c r="C4">
-        <v>0.06120820259644692</v>
+        <v>0.05819967075324057</v>
       </c>
       <c r="D4">
-        <v>-0.02498263238902553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02739681326875256</v>
+      </c>
+      <c r="E4">
+        <v>-0.05385488927358506</v>
+      </c>
+      <c r="F4">
+        <v>-0.006699316145957943</v>
+      </c>
+      <c r="G4">
+        <v>-0.09179449507490874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02316971380380685</v>
+        <v>0.03380351899139519</v>
       </c>
       <c r="C6">
-        <v>0.05324144129993823</v>
+        <v>0.04149726078045295</v>
       </c>
       <c r="D6">
-        <v>-0.02197247952524841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02077329900780369</v>
+      </c>
+      <c r="E6">
+        <v>-0.062684426527788</v>
+      </c>
+      <c r="F6">
+        <v>-0.009640480977391357</v>
+      </c>
+      <c r="G6">
+        <v>-0.08389393618655192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01993373243003326</v>
+        <v>0.02027669786415035</v>
       </c>
       <c r="C7">
-        <v>0.04302422013838926</v>
+        <v>0.03417920871713545</v>
       </c>
       <c r="D7">
-        <v>-0.01738366896937104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0162628381089</v>
+      </c>
+      <c r="E7">
+        <v>-0.02932361652216146</v>
+      </c>
+      <c r="F7">
+        <v>0.002088210017579118</v>
+      </c>
+      <c r="G7">
+        <v>-0.1225147618426475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002568571842075936</v>
+        <v>0.004746578920335237</v>
       </c>
       <c r="C8">
-        <v>0.01040624471372912</v>
+        <v>0.02016376214997441</v>
       </c>
       <c r="D8">
-        <v>-0.004298864204886735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.005025147466756998</v>
+      </c>
+      <c r="E8">
+        <v>-0.03622758773163755</v>
+      </c>
+      <c r="F8">
+        <v>-0.006033951640072692</v>
+      </c>
+      <c r="G8">
+        <v>-0.06673145006348256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02933919538798887</v>
+        <v>0.03420789741469939</v>
       </c>
       <c r="C9">
-        <v>0.04226223095209378</v>
+        <v>0.04455404636552652</v>
       </c>
       <c r="D9">
-        <v>-0.01795544767736892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01820296893445571</v>
+      </c>
+      <c r="E9">
+        <v>-0.0383048066565436</v>
+      </c>
+      <c r="F9">
+        <v>-0.004437263852873036</v>
+      </c>
+      <c r="G9">
+        <v>-0.09790290820298109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07678577973726629</v>
+        <v>0.09497251360584805</v>
       </c>
       <c r="C10">
-        <v>-0.1885186417218391</v>
+        <v>-0.1946860913431396</v>
       </c>
       <c r="D10">
-        <v>0.05195970101205956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01486019522450318</v>
+      </c>
+      <c r="E10">
+        <v>-0.0170997592324055</v>
+      </c>
+      <c r="F10">
+        <v>-0.02974218047884878</v>
+      </c>
+      <c r="G10">
+        <v>-0.0533115806404086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03990808304035872</v>
+        <v>0.03574514062196862</v>
       </c>
       <c r="C11">
-        <v>0.05434176529116612</v>
+        <v>0.05116852059800705</v>
       </c>
       <c r="D11">
-        <v>-0.005219718323600494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.003294766372134692</v>
+      </c>
+      <c r="E11">
+        <v>-0.02759815581532488</v>
+      </c>
+      <c r="F11">
+        <v>0.01402457899667073</v>
+      </c>
+      <c r="G11">
+        <v>-0.07398703126838659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03751891637963484</v>
+        <v>0.03702292521473942</v>
       </c>
       <c r="C12">
-        <v>0.04393641668127671</v>
+        <v>0.04506706821143771</v>
       </c>
       <c r="D12">
-        <v>-0.00880448835942505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.007459996166665382</v>
+      </c>
+      <c r="E12">
+        <v>-0.01816856029718029</v>
+      </c>
+      <c r="F12">
+        <v>0.005084570925342784</v>
+      </c>
+      <c r="G12">
+        <v>-0.07285988955283978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009932654063051886</v>
+        <v>0.01075851953337002</v>
       </c>
       <c r="C13">
-        <v>0.03271804218671874</v>
+        <v>0.03576099401874093</v>
       </c>
       <c r="D13">
-        <v>-0.02766313779390595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03070376257230675</v>
+      </c>
+      <c r="E13">
+        <v>-0.06239123910110901</v>
+      </c>
+      <c r="F13">
+        <v>-0.01942297336208161</v>
+      </c>
+      <c r="G13">
+        <v>-0.1293702389304129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007449678661147881</v>
+        <v>0.008357637963279586</v>
       </c>
       <c r="C14">
-        <v>0.02692342252698246</v>
+        <v>0.0253311134857494</v>
       </c>
       <c r="D14">
-        <v>-0.01174945197332792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01234753589985696</v>
+      </c>
+      <c r="E14">
+        <v>-0.02331204481577658</v>
+      </c>
+      <c r="F14">
+        <v>-0.007093507178641527</v>
+      </c>
+      <c r="G14">
+        <v>-0.1139830745484315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03441967429633271</v>
+        <v>0.03459424388554112</v>
       </c>
       <c r="C16">
-        <v>0.04081517748748154</v>
+        <v>0.04355237905726313</v>
       </c>
       <c r="D16">
-        <v>-0.003552239053093275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002947169238431367</v>
+      </c>
+      <c r="E16">
+        <v>-0.02393933673852411</v>
+      </c>
+      <c r="F16">
+        <v>-0.003224570013333661</v>
+      </c>
+      <c r="G16">
+        <v>-0.08074612118986148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02948543962531085</v>
+        <v>0.01734105327292419</v>
       </c>
       <c r="C19">
-        <v>0.05563810468463364</v>
+        <v>0.04841386935629813</v>
       </c>
       <c r="D19">
-        <v>-0.01985637918351173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02416237542811485</v>
+      </c>
+      <c r="E19">
+        <v>-0.1018056761833763</v>
+      </c>
+      <c r="F19">
+        <v>-0.02026573948664506</v>
+      </c>
+      <c r="G19">
+        <v>-0.1354856116858436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01302518387153501</v>
+        <v>0.01510077123081648</v>
       </c>
       <c r="C20">
-        <v>0.04139109139020903</v>
+        <v>0.03591050190489691</v>
       </c>
       <c r="D20">
-        <v>-0.01744192296270122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0166111868180722</v>
+      </c>
+      <c r="E20">
+        <v>-0.04692345406375034</v>
+      </c>
+      <c r="F20">
+        <v>-0.03005849161298473</v>
+      </c>
+      <c r="G20">
+        <v>-0.1054310958720992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005393193022027285</v>
+        <v>0.005965037770742115</v>
       </c>
       <c r="C21">
-        <v>0.03422482295949307</v>
+        <v>0.0327488202655307</v>
       </c>
       <c r="D21">
-        <v>-0.01997768420459394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02311565776974047</v>
+      </c>
+      <c r="E21">
+        <v>-0.06705216337587644</v>
+      </c>
+      <c r="F21">
+        <v>-0.02086609993638026</v>
+      </c>
+      <c r="G21">
+        <v>-0.1489653308562714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001217018931149423</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01002311380247503</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003637682451771134</v>
+      </c>
+      <c r="E22">
+        <v>-0.02518021741736077</v>
+      </c>
+      <c r="F22">
+        <v>0.003205358061436886</v>
+      </c>
+      <c r="G22">
+        <v>-0.006477209428502091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001227673262040502</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.009993166432370288</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003617685372490051</v>
+      </c>
+      <c r="E23">
+        <v>-0.02500057127045153</v>
+      </c>
+      <c r="F23">
+        <v>0.002905393348321432</v>
+      </c>
+      <c r="G23">
+        <v>-0.006299731696463261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02773552058645383</v>
+        <v>0.03055734593281685</v>
       </c>
       <c r="C24">
-        <v>0.04728808615044668</v>
+        <v>0.04891680077048605</v>
       </c>
       <c r="D24">
-        <v>-0.01048050693349243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.008120935177795304</v>
+      </c>
+      <c r="E24">
+        <v>-0.02266897659770075</v>
+      </c>
+      <c r="F24">
+        <v>0.006090600579510134</v>
+      </c>
+      <c r="G24">
+        <v>-0.08055312712611216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04674509807793498</v>
+        <v>0.04310924509835656</v>
       </c>
       <c r="C25">
-        <v>0.0524226698573142</v>
+        <v>0.05558389110568981</v>
       </c>
       <c r="D25">
-        <v>-0.01402711287231193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01217625747826427</v>
+      </c>
+      <c r="E25">
+        <v>-0.01524019786766848</v>
+      </c>
+      <c r="F25">
+        <v>0.005055509147997204</v>
+      </c>
+      <c r="G25">
+        <v>-0.08854604851425558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004320186669580878</v>
+        <v>0.01404226856868677</v>
       </c>
       <c r="C26">
-        <v>0.007811752641296596</v>
+        <v>0.00985677284794579</v>
       </c>
       <c r="D26">
-        <v>-0.02378090023148661</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02503935874038466</v>
+      </c>
+      <c r="E26">
+        <v>-0.0169251287833589</v>
+      </c>
+      <c r="F26">
+        <v>-0.007151792920048062</v>
+      </c>
+      <c r="G26">
+        <v>-0.08469544546101994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09385382451692394</v>
+        <v>0.1236923644404501</v>
       </c>
       <c r="C28">
-        <v>-0.2205619464934676</v>
+        <v>-0.2453018249037954</v>
       </c>
       <c r="D28">
-        <v>0.0465759180286264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006314151914930731</v>
+      </c>
+      <c r="E28">
+        <v>0.001739828831121864</v>
+      </c>
+      <c r="F28">
+        <v>-0.03077929716787236</v>
+      </c>
+      <c r="G28">
+        <v>-0.05145441310144868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01236338635792418</v>
+        <v>0.007381961485385806</v>
       </c>
       <c r="C29">
-        <v>0.01904611094163752</v>
+        <v>0.02031340215623498</v>
       </c>
       <c r="D29">
-        <v>-0.009123524790128984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01099173092812469</v>
+      </c>
+      <c r="E29">
+        <v>-0.0146420659973876</v>
+      </c>
+      <c r="F29">
+        <v>-0.01045739034489539</v>
+      </c>
+      <c r="G29">
+        <v>-0.1020833031136109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03824351104215089</v>
+        <v>0.03878480747746435</v>
       </c>
       <c r="C30">
-        <v>0.07203715921952787</v>
+        <v>0.06464727938314671</v>
       </c>
       <c r="D30">
-        <v>-0.03297328373994426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03315959636713715</v>
+      </c>
+      <c r="E30">
+        <v>-0.08492875567913122</v>
+      </c>
+      <c r="F30">
+        <v>0.017934884135191</v>
+      </c>
+      <c r="G30">
+        <v>-0.1181539008673132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.041000389376567</v>
+        <v>0.05547966986505591</v>
       </c>
       <c r="C31">
-        <v>0.02464617577507847</v>
+        <v>0.03849348866446614</v>
       </c>
       <c r="D31">
-        <v>-0.004290134103235215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004513331545378432</v>
+      </c>
+      <c r="E31">
+        <v>-0.001399582388129275</v>
+      </c>
+      <c r="F31">
+        <v>-0.03449677762861261</v>
+      </c>
+      <c r="G31">
+        <v>-0.09314331538399605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0124270736528482</v>
+        <v>0.002543942577436341</v>
       </c>
       <c r="C32">
-        <v>0.03738234007930138</v>
+        <v>0.02190549419219652</v>
       </c>
       <c r="D32">
-        <v>0.001567274023998357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00028728390594131</v>
+      </c>
+      <c r="E32">
+        <v>-0.05343495997063416</v>
+      </c>
+      <c r="F32">
+        <v>0.01934993415976821</v>
+      </c>
+      <c r="G32">
+        <v>-0.06958479603548677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03014639948005632</v>
+        <v>0.02620520783069162</v>
       </c>
       <c r="C33">
-        <v>0.05432026316753392</v>
+        <v>0.04728798917711657</v>
       </c>
       <c r="D33">
-        <v>-0.01771403344236545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01960482709609373</v>
+      </c>
+      <c r="E33">
+        <v>-0.07029616070381368</v>
+      </c>
+      <c r="F33">
+        <v>-0.00286154818362394</v>
+      </c>
+      <c r="G33">
+        <v>-0.1555367765461273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05350759099853659</v>
+        <v>0.04099598751604937</v>
       </c>
       <c r="C34">
-        <v>0.05330172118210738</v>
+        <v>0.05943223181882704</v>
       </c>
       <c r="D34">
-        <v>0.003308839890853321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.003395024377462612</v>
+      </c>
+      <c r="E34">
+        <v>-0.02226625971809872</v>
+      </c>
+      <c r="F34">
+        <v>0.02001980253550878</v>
+      </c>
+      <c r="G34">
+        <v>-0.07690371192930265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008459555464655447</v>
+        <v>0.01501264286251826</v>
       </c>
       <c r="C36">
-        <v>0.003365631922777528</v>
+        <v>0.00613140902446855</v>
       </c>
       <c r="D36">
-        <v>-0.01093544631340422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0143036911867794</v>
+      </c>
+      <c r="E36">
+        <v>-0.02119069312926903</v>
+      </c>
+      <c r="F36">
+        <v>-0.01009410030684397</v>
+      </c>
+      <c r="G36">
+        <v>-0.09580473399361827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03435342803012958</v>
+        <v>0.03036543279789935</v>
       </c>
       <c r="C38">
-        <v>0.02333089780043416</v>
+        <v>0.02342408811186001</v>
       </c>
       <c r="D38">
-        <v>0.008412797726800014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.005867487762451048</v>
+      </c>
+      <c r="E38">
+        <v>-0.02111042054765852</v>
+      </c>
+      <c r="F38">
+        <v>-0.01518166582039614</v>
+      </c>
+      <c r="G38">
+        <v>-0.09105205446812507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03672145680847445</v>
+        <v>0.03663554442495112</v>
       </c>
       <c r="C39">
-        <v>0.08384227037683037</v>
+        <v>0.07476094514912318</v>
       </c>
       <c r="D39">
-        <v>-0.01967045550305934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01416479865128138</v>
+      </c>
+      <c r="E39">
+        <v>-0.04457158014181499</v>
+      </c>
+      <c r="F39">
+        <v>0.01645370074717794</v>
+      </c>
+      <c r="G39">
+        <v>-0.09055917821283394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01720075518360642</v>
+        <v>0.01593345214660424</v>
       </c>
       <c r="C40">
-        <v>0.02493469585500585</v>
+        <v>0.03377207182743799</v>
       </c>
       <c r="D40">
-        <v>-0.01355806820055473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01627476862311937</v>
+      </c>
+      <c r="E40">
+        <v>-0.03474057081927041</v>
+      </c>
+      <c r="F40">
+        <v>-0.02939165174343971</v>
+      </c>
+      <c r="G40">
+        <v>-0.1130456455718959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01013462999195354</v>
+        <v>0.01870716320204057</v>
       </c>
       <c r="C41">
-        <v>-0.001805925084670822</v>
+        <v>-0.001579263045022082</v>
       </c>
       <c r="D41">
-        <v>-0.002233811110284455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.006111447488550206</v>
+      </c>
+      <c r="E41">
+        <v>-0.01725826901595829</v>
+      </c>
+      <c r="F41">
+        <v>-0.01624157380834345</v>
+      </c>
+      <c r="G41">
+        <v>-0.09028130714415769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01305103545425336</v>
+        <v>0.005028910369208398</v>
       </c>
       <c r="C42">
-        <v>0.03194776600643871</v>
+        <v>0.02519980044248533</v>
       </c>
       <c r="D42">
-        <v>-0.0933613179799859</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08328531528717997</v>
+      </c>
+      <c r="E42">
+        <v>0.01297650577157642</v>
+      </c>
+      <c r="F42">
+        <v>-0.03149539428402614</v>
+      </c>
+      <c r="G42">
+        <v>0.01992428338445733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02960996982347216</v>
+        <v>0.03326367709034229</v>
       </c>
       <c r="C43">
-        <v>0.009227981352275535</v>
+        <v>0.01136656274031107</v>
       </c>
       <c r="D43">
-        <v>-0.002129205688962705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.007830237011902367</v>
+      </c>
+      <c r="E43">
+        <v>-0.03547628729079574</v>
+      </c>
+      <c r="F43">
+        <v>-0.01434775384804162</v>
+      </c>
+      <c r="G43">
+        <v>-0.1155598672851528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02036132397841053</v>
+        <v>0.01396795229981358</v>
       </c>
       <c r="C44">
-        <v>0.05383118111886247</v>
+        <v>0.05091498750135818</v>
       </c>
       <c r="D44">
-        <v>-0.01055876703506052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.009531413360910408</v>
+      </c>
+      <c r="E44">
+        <v>-0.0417601447753231</v>
+      </c>
+      <c r="F44">
+        <v>-0.01904890946318056</v>
+      </c>
+      <c r="G44">
+        <v>-0.1178761945885057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0002722041077598136</v>
+        <v>0.00961193039375167</v>
       </c>
       <c r="C46">
-        <v>0.009754484762494778</v>
+        <v>0.01534177031074049</v>
       </c>
       <c r="D46">
-        <v>-0.01271303533264745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01393495212533918</v>
+      </c>
+      <c r="E46">
+        <v>-0.007017401586936946</v>
+      </c>
+      <c r="F46">
+        <v>-0.01655100003225772</v>
+      </c>
+      <c r="G46">
+        <v>-0.1117217217979402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07298948297258018</v>
+        <v>0.0841102540448921</v>
       </c>
       <c r="C47">
-        <v>0.06465308576749332</v>
+        <v>0.07047042312740807</v>
       </c>
       <c r="D47">
-        <v>-0.0004074383502287742</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004900990062103624</v>
+      </c>
+      <c r="E47">
+        <v>0.007772857565202143</v>
+      </c>
+      <c r="F47">
+        <v>-0.04255325441514148</v>
+      </c>
+      <c r="G47">
+        <v>-0.08598538678386178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01168129182766739</v>
+        <v>0.01701109602908431</v>
       </c>
       <c r="C48">
-        <v>0.01050258449270627</v>
+        <v>0.01164642084866818</v>
       </c>
       <c r="D48">
-        <v>-0.001502964920187032</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00389748209861284</v>
+      </c>
+      <c r="E48">
+        <v>-0.01547856338975731</v>
+      </c>
+      <c r="F48">
+        <v>-0.02199915870020648</v>
+      </c>
+      <c r="G48">
+        <v>-0.1081611129521177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07875386194642939</v>
+        <v>0.07795183662128038</v>
       </c>
       <c r="C50">
-        <v>0.05975109192556359</v>
+        <v>0.06598717013399072</v>
       </c>
       <c r="D50">
-        <v>0.000172437151875601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001194537121439645</v>
+      </c>
+      <c r="E50">
+        <v>0.0008193828810319335</v>
+      </c>
+      <c r="F50">
+        <v>-0.04200308297881358</v>
+      </c>
+      <c r="G50">
+        <v>-0.09686479586752426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01930198801461225</v>
+        <v>0.01228390970241406</v>
       </c>
       <c r="C51">
-        <v>0.03894975960278495</v>
+        <v>0.03167071335682613</v>
       </c>
       <c r="D51">
-        <v>-0.01158779655003095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01264937006476911</v>
+      </c>
+      <c r="E51">
+        <v>-0.04084992246548032</v>
+      </c>
+      <c r="F51">
+        <v>0.007487099801125749</v>
+      </c>
+      <c r="G51">
+        <v>-0.1066335005945302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1013033454489677</v>
+        <v>0.08626066939836217</v>
       </c>
       <c r="C53">
-        <v>0.07259666509075574</v>
+        <v>0.08506655251517647</v>
       </c>
       <c r="D53">
-        <v>0.0009539574886185957</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003770500963792708</v>
+      </c>
+      <c r="E53">
+        <v>0.02887804146634849</v>
+      </c>
+      <c r="F53">
+        <v>-0.04609176809963747</v>
+      </c>
+      <c r="G53">
+        <v>-0.08992090482423258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02755454551599377</v>
+        <v>0.03167569624224339</v>
       </c>
       <c r="C54">
-        <v>0.0025769133332453</v>
+        <v>0.01453963996217909</v>
       </c>
       <c r="D54">
-        <v>0.005304809918509405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001060474220306316</v>
+      </c>
+      <c r="E54">
+        <v>-0.02977183733522374</v>
+      </c>
+      <c r="F54">
+        <v>-0.01254658842130231</v>
+      </c>
+      <c r="G54">
+        <v>-0.1116826103257228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07675835738524776</v>
+        <v>0.08101605554301677</v>
       </c>
       <c r="C55">
-        <v>0.0620534551509177</v>
+        <v>0.06802192250322092</v>
       </c>
       <c r="D55">
-        <v>0.0005086197529287183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00597177069100675</v>
+      </c>
+      <c r="E55">
+        <v>0.03253363358696395</v>
+      </c>
+      <c r="F55">
+        <v>-0.04605713485905807</v>
+      </c>
+      <c r="G55">
+        <v>-0.06682530095641802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1534520689731484</v>
+        <v>0.1426680581233428</v>
       </c>
       <c r="C56">
-        <v>0.09094838750475152</v>
+        <v>0.1026673347484847</v>
       </c>
       <c r="D56">
-        <v>0.01015954132874759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01335693288195978</v>
+      </c>
+      <c r="E56">
+        <v>0.03959584804954912</v>
+      </c>
+      <c r="F56">
+        <v>-0.05704751715038081</v>
+      </c>
+      <c r="G56">
+        <v>-0.05357315899364454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009815875969607198</v>
+        <v>0.003653726526761008</v>
       </c>
       <c r="C57">
-        <v>0.003364211119636583</v>
+        <v>0.00327757273433085</v>
       </c>
       <c r="D57">
-        <v>-0.02166423441905334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02302746564702006</v>
+      </c>
+      <c r="E57">
+        <v>-0.02411760277658508</v>
+      </c>
+      <c r="F57">
+        <v>-0.003339880417829324</v>
+      </c>
+      <c r="G57">
+        <v>-0.01174858095308916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04328143892361033</v>
+        <v>0.03779667274765362</v>
       </c>
       <c r="C58">
-        <v>0.06329997081941761</v>
+        <v>0.03359398400118836</v>
       </c>
       <c r="D58">
-        <v>-0.006251344477308352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.04050958754237231</v>
+      </c>
+      <c r="E58">
+        <v>-0.7113499569908437</v>
+      </c>
+      <c r="F58">
+        <v>-0.5925661225878848</v>
+      </c>
+      <c r="G58">
+        <v>0.3123471533915038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1434635113373816</v>
+        <v>0.148933946966371</v>
       </c>
       <c r="C59">
-        <v>-0.2173254868958741</v>
+        <v>-0.2068625961545346</v>
       </c>
       <c r="D59">
-        <v>0.05845618439921334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.009589611452907255</v>
+      </c>
+      <c r="E59">
+        <v>-0.02387358227212437</v>
+      </c>
+      <c r="F59">
+        <v>-0.01428952550704096</v>
+      </c>
+      <c r="G59">
+        <v>-0.03965638516165973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3121077523600093</v>
+        <v>0.2874922291391427</v>
       </c>
       <c r="C60">
-        <v>0.08908256453507919</v>
+        <v>0.09677501318978451</v>
       </c>
       <c r="D60">
-        <v>0.003239496569206721</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01905877659263494</v>
+      </c>
+      <c r="E60">
+        <v>-0.1337483633090818</v>
+      </c>
+      <c r="F60">
+        <v>0.3038726075415284</v>
+      </c>
+      <c r="G60">
+        <v>0.1625874432305521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0331882445270193</v>
+        <v>0.03890053941719022</v>
       </c>
       <c r="C61">
-        <v>0.06323525718625213</v>
+        <v>0.06215146088266655</v>
       </c>
       <c r="D61">
-        <v>-0.01056587363066957</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.007762147701819959</v>
+      </c>
+      <c r="E61">
+        <v>-0.03936461495740357</v>
+      </c>
+      <c r="F61">
+        <v>0.006289818438675185</v>
+      </c>
+      <c r="G61">
+        <v>-0.08784866652499952</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01412548776427692</v>
+        <v>0.01467335544939406</v>
       </c>
       <c r="C63">
-        <v>0.02734303649336219</v>
+        <v>0.02671329063509903</v>
       </c>
       <c r="D63">
-        <v>-0.0106013202555615</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00973590833446188</v>
+      </c>
+      <c r="E63">
+        <v>-0.01434857898533383</v>
+      </c>
+      <c r="F63">
+        <v>-0.01239298575864519</v>
+      </c>
+      <c r="G63">
+        <v>-0.08854059719382641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04675557335846049</v>
+        <v>0.05069667412605612</v>
       </c>
       <c r="C64">
-        <v>0.03023561715418752</v>
+        <v>0.0466027260886465</v>
       </c>
       <c r="D64">
-        <v>-0.005176469188504947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006294950980951494</v>
+      </c>
+      <c r="E64">
+        <v>-0.007750592558799182</v>
+      </c>
+      <c r="F64">
+        <v>0.003171290557367712</v>
+      </c>
+      <c r="G64">
+        <v>-0.09361603505658939</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08214207156706058</v>
+        <v>0.07094450849719668</v>
       </c>
       <c r="C65">
-        <v>0.06422800927854938</v>
+        <v>0.04863990379531902</v>
       </c>
       <c r="D65">
-        <v>-0.01739431400676819</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01983779798758983</v>
+      </c>
+      <c r="E65">
+        <v>-0.06563221230374862</v>
+      </c>
+      <c r="F65">
+        <v>0.007696395248510503</v>
+      </c>
+      <c r="G65">
+        <v>-0.03985920167127955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05843448903950733</v>
+        <v>0.04871944532927868</v>
       </c>
       <c r="C66">
-        <v>0.1234104484482808</v>
+        <v>0.100630925059319</v>
       </c>
       <c r="D66">
-        <v>-0.02341248262892544</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01506584802199865</v>
+      </c>
+      <c r="E66">
+        <v>-0.06763213812726707</v>
+      </c>
+      <c r="F66">
+        <v>0.02152569672450747</v>
+      </c>
+      <c r="G66">
+        <v>-0.09421914098818474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06337831980443913</v>
+        <v>0.05372877238759996</v>
       </c>
       <c r="C67">
-        <v>0.02535490019864854</v>
+        <v>0.02887135640445891</v>
       </c>
       <c r="D67">
-        <v>0.00855242461831373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005209844905611733</v>
+      </c>
+      <c r="E67">
+        <v>-0.007243699933699784</v>
+      </c>
+      <c r="F67">
+        <v>-0.01056835207433341</v>
+      </c>
+      <c r="G67">
+        <v>-0.07777643455473957</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1088223454338715</v>
+        <v>0.1517576140860743</v>
       </c>
       <c r="C68">
-        <v>-0.2809173832417702</v>
+        <v>-0.2729194400077194</v>
       </c>
       <c r="D68">
-        <v>0.04500770449148218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.00607949370618876</v>
+      </c>
+      <c r="E68">
+        <v>0.004476433758571908</v>
+      </c>
+      <c r="F68">
+        <v>-0.04297113129333591</v>
+      </c>
+      <c r="G68">
+        <v>-0.0225443024591525</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08183474213312232</v>
+        <v>0.08468649005939358</v>
       </c>
       <c r="C69">
-        <v>0.05963311371338725</v>
+        <v>0.07296008067945922</v>
       </c>
       <c r="D69">
-        <v>0.005714092459278429</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008336420153477554</v>
+      </c>
+      <c r="E69">
+        <v>0.01279429826035009</v>
+      </c>
+      <c r="F69">
+        <v>-0.01955803777262255</v>
+      </c>
+      <c r="G69">
+        <v>-0.1007188410753488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1175824142017207</v>
+        <v>0.138645766265534</v>
       </c>
       <c r="C71">
-        <v>-0.2271293979075295</v>
+        <v>-0.2359308814339724</v>
       </c>
       <c r="D71">
-        <v>0.04872156935568408</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002197643680034425</v>
+      </c>
+      <c r="E71">
+        <v>-0.02444561583278089</v>
+      </c>
+      <c r="F71">
+        <v>-0.03838932227547893</v>
+      </c>
+      <c r="G71">
+        <v>-0.06492204918949641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07151415661796022</v>
+        <v>0.08637409582227965</v>
       </c>
       <c r="C72">
-        <v>0.06498971502475315</v>
+        <v>0.0602919725331381</v>
       </c>
       <c r="D72">
-        <v>0.004649842265374238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006791342318476595</v>
+      </c>
+      <c r="E72">
+        <v>-0.009493266688547393</v>
+      </c>
+      <c r="F72">
+        <v>0.02383486454898482</v>
+      </c>
+      <c r="G72">
+        <v>-0.08476867665413376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4346611728357431</v>
+        <v>0.372694815675236</v>
       </c>
       <c r="C73">
-        <v>0.09838132705668885</v>
+        <v>0.08960840501265198</v>
       </c>
       <c r="D73">
-        <v>0.01169868946251058</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03297465584956424</v>
+      </c>
+      <c r="E73">
+        <v>-0.287491691138744</v>
+      </c>
+      <c r="F73">
+        <v>0.5290062556903723</v>
+      </c>
+      <c r="G73">
+        <v>0.3321407898418466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1180302619991998</v>
+        <v>0.109423124172771</v>
       </c>
       <c r="C74">
-        <v>0.1163834446005363</v>
+        <v>0.1020664498179758</v>
       </c>
       <c r="D74">
-        <v>-6.569258752943665e-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009828060748073023</v>
+      </c>
+      <c r="E74">
+        <v>0.01409388002254776</v>
+      </c>
+      <c r="F74">
+        <v>-0.05933273545830586</v>
+      </c>
+      <c r="G74">
+        <v>-0.07154516700771041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2601851892839867</v>
+        <v>0.2531246411782843</v>
       </c>
       <c r="C75">
-        <v>0.1264099428704567</v>
+        <v>0.1448273755574337</v>
       </c>
       <c r="D75">
-        <v>0.02421842089255901</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03306061417948945</v>
+      </c>
+      <c r="E75">
+        <v>0.1042135109345908</v>
+      </c>
+      <c r="F75">
+        <v>-0.1293482129866413</v>
+      </c>
+      <c r="G75">
+        <v>-0.02482559584690861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1229753518105512</v>
+        <v>0.1228993891606078</v>
       </c>
       <c r="C76">
-        <v>0.1057107754981926</v>
+        <v>0.1055452031651722</v>
       </c>
       <c r="D76">
-        <v>0.008415551049986775</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01856850830499613</v>
+      </c>
+      <c r="E76">
+        <v>0.04374851053223059</v>
+      </c>
+      <c r="F76">
+        <v>-0.07970718364598238</v>
+      </c>
+      <c r="G76">
+        <v>-0.06640628667239075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.06447680120288275</v>
+        <v>0.06702909334448481</v>
       </c>
       <c r="C77">
-        <v>0.06046947578264494</v>
+        <v>0.06372307544693481</v>
       </c>
       <c r="D77">
-        <v>-0.01091636913114895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.010774535689465</v>
+      </c>
+      <c r="E77">
+        <v>-0.0532490058033454</v>
+      </c>
+      <c r="F77">
+        <v>-0.04012485166748956</v>
+      </c>
+      <c r="G77">
+        <v>-0.116814838013335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04912112460003897</v>
+        <v>0.04127844006943937</v>
       </c>
       <c r="C78">
-        <v>0.05250683147113622</v>
+        <v>0.05383689201178168</v>
       </c>
       <c r="D78">
-        <v>-0.00709964560107823</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0101330002892735</v>
+      </c>
+      <c r="E78">
+        <v>-0.05720090956869356</v>
+      </c>
+      <c r="F78">
+        <v>0.02452824839305404</v>
+      </c>
+      <c r="G78">
+        <v>-0.09517720767466888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001007978127178842</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0001663920953014433</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0009682743054526593</v>
+      </c>
+      <c r="E79">
+        <v>-0.007661507965673942</v>
+      </c>
+      <c r="F79">
+        <v>-0.002235869581090034</v>
+      </c>
+      <c r="G79">
+        <v>-0.008391513385050968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05861672406749011</v>
+        <v>0.04116853416832241</v>
       </c>
       <c r="C80">
-        <v>0.06219528125294192</v>
+        <v>0.04700281775085241</v>
       </c>
       <c r="D80">
-        <v>-0.0158466146463613</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01515145276086207</v>
+      </c>
+      <c r="E80">
+        <v>-0.04031202228533489</v>
+      </c>
+      <c r="F80">
+        <v>-0.004005824346530299</v>
+      </c>
+      <c r="G80">
+        <v>-0.04985113722386032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1380491162800022</v>
+        <v>0.1385014155251628</v>
       </c>
       <c r="C81">
-        <v>0.07753948819716197</v>
+        <v>0.09163229738870073</v>
       </c>
       <c r="D81">
-        <v>0.009983863464710536</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01660576732953493</v>
+      </c>
+      <c r="E81">
+        <v>0.07008197520234116</v>
+      </c>
+      <c r="F81">
+        <v>-0.1033089352788526</v>
+      </c>
+      <c r="G81">
+        <v>-0.03780314902298759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05116129254859111</v>
+        <v>0.1712722769250825</v>
       </c>
       <c r="C82">
-        <v>0.03748061058245833</v>
+        <v>0.1184894790786811</v>
       </c>
       <c r="D82">
-        <v>-0.0002670040997029554</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02042148620716935</v>
+      </c>
+      <c r="E82">
+        <v>0.1844556756014746</v>
+      </c>
+      <c r="F82">
+        <v>-0.0513732655126603</v>
+      </c>
+      <c r="G82">
+        <v>-0.02122952077313016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02960084475982647</v>
+        <v>0.02850183428961222</v>
       </c>
       <c r="C83">
-        <v>0.02007923686476845</v>
+        <v>0.03292801937970002</v>
       </c>
       <c r="D83">
-        <v>-0.004504946046529981</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007865725188341921</v>
+      </c>
+      <c r="E83">
+        <v>-0.03455325923297538</v>
+      </c>
+      <c r="F83">
+        <v>0.009933430896169103</v>
+      </c>
+      <c r="G83">
+        <v>-0.05902072619803242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2509408461662442</v>
+        <v>0.2133095104926097</v>
       </c>
       <c r="C85">
-        <v>0.12800819079857</v>
+        <v>0.1287795524390156</v>
       </c>
       <c r="D85">
-        <v>0.01272428711847916</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01948136566871145</v>
+      </c>
+      <c r="E85">
+        <v>0.1080965689684415</v>
+      </c>
+      <c r="F85">
+        <v>-0.05691450567278737</v>
+      </c>
+      <c r="G85">
+        <v>0.01608345885567446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01027536402393511</v>
+        <v>0.01024893240533959</v>
       </c>
       <c r="C86">
-        <v>0.0207713119358924</v>
+        <v>0.02624662586858047</v>
       </c>
       <c r="D86">
-        <v>-0.008972245271242789</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01552325533525814</v>
+      </c>
+      <c r="E86">
+        <v>-0.07663231990564452</v>
+      </c>
+      <c r="F86">
+        <v>0.01148887106122207</v>
+      </c>
+      <c r="G86">
+        <v>-0.1704338729603476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01472151792913242</v>
+        <v>0.0198779937507575</v>
       </c>
       <c r="C87">
-        <v>0.02132567129940643</v>
+        <v>0.01496871895911561</v>
       </c>
       <c r="D87">
-        <v>-0.009948512532760174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01504466913511158</v>
+      </c>
+      <c r="E87">
+        <v>-0.09899249613822282</v>
+      </c>
+      <c r="F87">
+        <v>-0.03602126995572772</v>
+      </c>
+      <c r="G87">
+        <v>-0.1086301354549509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09511634613408919</v>
+        <v>0.08946551833794558</v>
       </c>
       <c r="C88">
-        <v>0.0616456257558959</v>
+        <v>0.06280794674128391</v>
       </c>
       <c r="D88">
-        <v>-0.02419456046779876</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02341638792057902</v>
+      </c>
+      <c r="E88">
+        <v>-0.007721585563847591</v>
+      </c>
+      <c r="F88">
+        <v>-0.01936395002409657</v>
+      </c>
+      <c r="G88">
+        <v>-0.1070126946878494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2019472293592902</v>
+        <v>0.2165157141465286</v>
       </c>
       <c r="C89">
-        <v>-0.3755623909861285</v>
+        <v>-0.368349754726002</v>
       </c>
       <c r="D89">
-        <v>0.07395731073780153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001067830741372403</v>
+      </c>
+      <c r="E89">
+        <v>0.02353516276082105</v>
+      </c>
+      <c r="F89">
+        <v>-0.01371551539070807</v>
+      </c>
+      <c r="G89">
+        <v>-0.0910347726870519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1790711929012191</v>
+        <v>0.2010516116493016</v>
       </c>
       <c r="C90">
-        <v>-0.3390064555976849</v>
+        <v>-0.3196668157753057</v>
       </c>
       <c r="D90">
-        <v>0.07152438404961858</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004156961175305855</v>
+      </c>
+      <c r="E90">
+        <v>0.01468202053983575</v>
+      </c>
+      <c r="F90">
+        <v>-0.05224854468774279</v>
+      </c>
+      <c r="G90">
+        <v>-0.05215949667808855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2017211930927185</v>
+        <v>0.1886908810123515</v>
       </c>
       <c r="C91">
-        <v>0.1126956130588413</v>
+        <v>0.1320328284689551</v>
       </c>
       <c r="D91">
-        <v>0.01698245746986577</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02370663546042216</v>
+      </c>
+      <c r="E91">
+        <v>0.0857179979752134</v>
+      </c>
+      <c r="F91">
+        <v>-0.1038868905398113</v>
+      </c>
+      <c r="G91">
+        <v>-0.04507816619850984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1820622391798768</v>
+        <v>0.1833694739794749</v>
       </c>
       <c r="C92">
-        <v>-0.2628130338684109</v>
+        <v>-0.2746314051570322</v>
       </c>
       <c r="D92">
-        <v>0.09567050161319827</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03916372962483738</v>
+      </c>
+      <c r="E92">
+        <v>-0.01184322405222487</v>
+      </c>
+      <c r="F92">
+        <v>-0.06866725378011744</v>
+      </c>
+      <c r="G92">
+        <v>-0.07858860848718857</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1922807148194052</v>
+        <v>0.2238782809689973</v>
       </c>
       <c r="C93">
-        <v>-0.3199219361185452</v>
+        <v>-0.3187451356098844</v>
       </c>
       <c r="D93">
-        <v>0.0750191831956652</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.009889670620409491</v>
+      </c>
+      <c r="E93">
+        <v>-0.004288177480015215</v>
+      </c>
+      <c r="F93">
+        <v>-0.03512419419737848</v>
+      </c>
+      <c r="G93">
+        <v>-0.05476117785071798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2790813440245309</v>
+        <v>0.3381208389504026</v>
       </c>
       <c r="C94">
-        <v>0.1375942244254491</v>
+        <v>0.1939975860907586</v>
       </c>
       <c r="D94">
-        <v>0.003259668260743104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03342771239892384</v>
+      </c>
+      <c r="E94">
+        <v>0.39594438781875</v>
+      </c>
+      <c r="F94">
+        <v>-0.3527664937556113</v>
+      </c>
+      <c r="G94">
+        <v>0.3709840423907702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.07281459263540964</v>
+        <v>0.08033798027758852</v>
       </c>
       <c r="C95">
-        <v>0.09247211741231337</v>
+        <v>0.08980573760281237</v>
       </c>
       <c r="D95">
-        <v>-0.0004281538207074977</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.006888539088450595</v>
+      </c>
+      <c r="E95">
+        <v>-0.134609116591339</v>
+      </c>
+      <c r="F95">
+        <v>0.1327148327064981</v>
+      </c>
+      <c r="G95">
+        <v>-0.12900671486113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.208839841898531</v>
+        <v>0.1950744917755006</v>
       </c>
       <c r="C98">
-        <v>0.04887482997335701</v>
+        <v>0.04529685135732602</v>
       </c>
       <c r="D98">
-        <v>0.02891334072101698</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.008417234128435735</v>
+      </c>
+      <c r="E98">
+        <v>-0.1352092617195987</v>
+      </c>
+      <c r="F98">
+        <v>0.195282691476127</v>
+      </c>
+      <c r="G98">
+        <v>0.06920860917778703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01218083323291277</v>
+        <v>0.007229719884017817</v>
       </c>
       <c r="C101">
-        <v>0.0193654247125971</v>
+        <v>0.02020041988585388</v>
       </c>
       <c r="D101">
-        <v>-0.009049059857359692</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01080224493844761</v>
+      </c>
+      <c r="E101">
+        <v>-0.01412336002395187</v>
+      </c>
+      <c r="F101">
+        <v>-0.01120949447726301</v>
+      </c>
+      <c r="G101">
+        <v>-0.1017579867449166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1244272128622408</v>
+        <v>0.1237865582568434</v>
       </c>
       <c r="C102">
-        <v>0.07120037711764918</v>
+        <v>0.09610111136116654</v>
       </c>
       <c r="D102">
-        <v>-0.004242217807669635</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001105664952275774</v>
+      </c>
+      <c r="E102">
+        <v>0.05201112275397471</v>
+      </c>
+      <c r="F102">
+        <v>-0.01930489275286894</v>
+      </c>
+      <c r="G102">
+        <v>-0.01882870328406263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.100028528561023</v>
+        <v>0.01961192862167987</v>
       </c>
       <c r="C104">
-        <v>-0.1827166922059148</v>
+        <v>-0.02737607748299565</v>
       </c>
       <c r="D104">
-        <v>-0.969081546266892</v>
+        <v>0.9851688141159393</v>
+      </c>
+      <c r="E104">
+        <v>0.09738552918374445</v>
+      </c>
+      <c r="F104">
+        <v>-0.01903053768303243</v>
+      </c>
+      <c r="G104">
+        <v>0.037323671015858</v>
       </c>
     </row>
   </sheetData>
